--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H2">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J2">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>459.3520842462186</v>
+        <v>29.64663015940655</v>
       </c>
       <c r="R2">
-        <v>4134.168758215968</v>
+        <v>266.819671434659</v>
       </c>
       <c r="S2">
-        <v>0.008494984522017772</v>
+        <v>0.0008399589115748518</v>
       </c>
       <c r="T2">
-        <v>0.008494984522017773</v>
+        <v>0.0008399589115748515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H3">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J3">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>3523.265919899669</v>
+        <v>2800.860988726268</v>
       </c>
       <c r="R3">
-        <v>31709.39327909702</v>
+        <v>25207.74889853641</v>
       </c>
       <c r="S3">
-        <v>0.06515718657424767</v>
+        <v>0.07935499363378817</v>
       </c>
       <c r="T3">
-        <v>0.06515718657424767</v>
+        <v>0.07935499363378816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H4">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J4">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>585.8176710832853</v>
+        <v>448.7793821400485</v>
       </c>
       <c r="R4">
-        <v>5272.359039749567</v>
+        <v>4039.014439260437</v>
       </c>
       <c r="S4">
-        <v>0.01083376394545656</v>
+        <v>0.01271497770008729</v>
       </c>
       <c r="T4">
-        <v>0.01083376394545656</v>
+        <v>0.01271497770008729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.434592</v>
+        <v>15.44975366666667</v>
       </c>
       <c r="H5">
-        <v>58.303776</v>
+        <v>46.349261</v>
       </c>
       <c r="I5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="J5">
-        <v>0.1244167820899015</v>
+        <v>0.1287486886000874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>2159.193788965429</v>
+        <v>1264.940938980186</v>
       </c>
       <c r="R5">
-        <v>19432.74410068886</v>
+        <v>11384.46845082168</v>
       </c>
       <c r="S5">
-        <v>0.03993084704817951</v>
+        <v>0.03583875835463711</v>
       </c>
       <c r="T5">
-        <v>0.03993084704817952</v>
+        <v>0.0358387583546371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J6">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>1155.600119549795</v>
+        <v>93.81906290948498</v>
       </c>
       <c r="R6">
-        <v>10400.40107594816</v>
+        <v>844.3715661853649</v>
       </c>
       <c r="S6">
-        <v>0.02137098201116567</v>
+        <v>0.002658115190249366</v>
       </c>
       <c r="T6">
-        <v>0.02137098201116567</v>
+        <v>0.002658115190249366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J7">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>8863.542058207811</v>
@@ -883,10 +883,10 @@
         <v>79771.8785238703</v>
       </c>
       <c r="S7">
-        <v>0.1639170805511562</v>
+        <v>0.251125038491025</v>
       </c>
       <c r="T7">
-        <v>0.1639170805511562</v>
+        <v>0.251125038491025</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J8">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>1473.75182121817</v>
+        <v>1420.197198099355</v>
       </c>
       <c r="R8">
-        <v>13263.76639096353</v>
+        <v>12781.7747828942</v>
       </c>
       <c r="S8">
-        <v>0.02725469055199332</v>
+        <v>0.0402375341252298</v>
       </c>
       <c r="T8">
-        <v>0.02725469055199332</v>
+        <v>0.0402375341252298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="J9">
-        <v>0.3129974875220664</v>
+        <v>0.4074352211478151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>5431.921800799285</v>
+        <v>4003.00381165954</v>
       </c>
       <c r="R9">
-        <v>48887.29620719356</v>
+        <v>36027.03430493586</v>
       </c>
       <c r="S9">
-        <v>0.1004547344077512</v>
+        <v>0.1134145333413109</v>
       </c>
       <c r="T9">
-        <v>0.1004547344077512</v>
+        <v>0.1134145333413109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H10">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J10">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>536.189509794404</v>
+        <v>46.67057804449554</v>
       </c>
       <c r="R10">
-        <v>4825.705588149636</v>
+        <v>420.0352024004599</v>
       </c>
       <c r="S10">
-        <v>0.00991597021715104</v>
+        <v>0.001322287481782663</v>
       </c>
       <c r="T10">
-        <v>0.00991597021715104</v>
+        <v>0.001322287481782663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H11">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J11">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>4112.614900978073</v>
+        <v>4409.195941099462</v>
       </c>
       <c r="R11">
-        <v>37013.53410880265</v>
+        <v>39682.76346989516</v>
       </c>
       <c r="S11">
-        <v>0.07605625646862618</v>
+        <v>0.124922913791302</v>
       </c>
       <c r="T11">
-        <v>0.07605625646862617</v>
+        <v>0.124922913791302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H12">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J12">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>683.809436507704</v>
+        <v>706.4814134459755</v>
       </c>
       <c r="R12">
-        <v>6154.284928569336</v>
+        <v>6358.33272101378</v>
       </c>
       <c r="S12">
-        <v>0.01264596543341026</v>
+        <v>0.02001628366850524</v>
       </c>
       <c r="T12">
-        <v>0.01264596543341026</v>
+        <v>0.02001628366850524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.685484</v>
+        <v>24.32144666666666</v>
       </c>
       <c r="H13">
-        <v>68.05645200000001</v>
+        <v>72.96433999999999</v>
       </c>
       <c r="I13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="J13">
-        <v>0.1452284112489703</v>
+        <v>0.2026798893205849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>2520.369666236092</v>
+        <v>1991.306414824382</v>
       </c>
       <c r="R13">
-        <v>22683.32699612483</v>
+        <v>17921.75773341944</v>
       </c>
       <c r="S13">
-        <v>0.0466102191297828</v>
+        <v>0.05641840437899499</v>
       </c>
       <c r="T13">
-        <v>0.0466102191297828</v>
+        <v>0.05641840437899499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H14">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J14">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>1540.901084255763</v>
+        <v>60.13116292233654</v>
       </c>
       <c r="R14">
-        <v>13868.10975830187</v>
+        <v>541.1804663010289</v>
       </c>
       <c r="S14">
-        <v>0.02849650912587726</v>
+        <v>0.001703657578901943</v>
       </c>
       <c r="T14">
-        <v>0.02849650912587726</v>
+        <v>0.001703657578901943</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H15">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J15">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>11818.83017904141</v>
+        <v>5680.882701688049</v>
       </c>
       <c r="R15">
-        <v>106369.4716113726</v>
+        <v>51127.94431519244</v>
       </c>
       <c r="S15">
-        <v>0.218570423173474</v>
+        <v>0.1609527971724734</v>
       </c>
       <c r="T15">
-        <v>0.218570423173474</v>
+        <v>0.1609527971724734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H16">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J16">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>1965.131139068846</v>
+        <v>910.2426143730386</v>
       </c>
       <c r="R16">
-        <v>17686.18025161961</v>
+        <v>8192.183529357346</v>
       </c>
       <c r="S16">
-        <v>0.03634196770331172</v>
+        <v>0.02578931877002001</v>
       </c>
       <c r="T16">
-        <v>0.03634196770331172</v>
+        <v>0.02578931877002002</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.19353</v>
+        <v>31.33616366666666</v>
       </c>
       <c r="H17">
-        <v>195.58059</v>
+        <v>94.00849099999999</v>
       </c>
       <c r="I17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="J17">
-        <v>0.4173573191390618</v>
+        <v>0.2611362009315126</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>7243.036800398556</v>
+        <v>2565.632899252706</v>
       </c>
       <c r="R17">
-        <v>65187.331203587</v>
+        <v>23090.69609327435</v>
       </c>
       <c r="S17">
-        <v>0.1339484191363988</v>
+        <v>0.07269042741011722</v>
       </c>
       <c r="T17">
-        <v>0.1339484191363988</v>
+        <v>0.07269042741011722</v>
       </c>
     </row>
   </sheetData>
